--- a/pred_ohlcv/54_21/2020-01-26 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-18333809.36816408</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-17160686.20065989</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-20853261.20065989</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-20853261.20065989</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-19577175.20065989</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-22612512.20065989</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-26936615.18245989</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-28326884.01535989</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-30007472.13377681</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-35068724.8823768</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-35068446.8823768</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-32445868.8823768</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-35889157.8823768</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-34269273.8823768</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-34169712.2109768</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-32351156.2109768</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-35252330.2109768</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-36623094.2109768</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-36623094.2109768</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-36622581.9815768</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-38952160.9815768</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-38831264.28177681</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-41010992.28177681</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-41006451.96217681</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-41010103.38397681</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-41009643.70357681</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-48919179.7300768</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-51852261.7300768</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-51852261.7300768</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-51839301.8853768</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-53935571.5874768</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-55302396.6010768</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-54656862.6010768</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-53801054.6010768</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-55726785.6010768</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-55563171.69117679</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-55445006.11677679</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-55445006.11677679</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-56846457.11677679</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-56846457.11677679</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-56846457.11677679</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-56844235.11677679</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-57796589.24837679</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-54780389.24837679</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-55202285.24837679</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-55201925.96877679</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-58915864.96877679</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-58915587.96877679</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-58915864.96877679</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-60511785.96877679</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-59873867.96877679</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-59873867.96877679</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-67609617.39830068</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-68104071.39830068</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-68101131.36580068</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-68101408.36580068</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-75521335.40218064</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-73498772.40218064</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-73497587.55208065</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-76446023.05748065</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-76445647.76178065</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-76329214.45238064</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-78644079.33912943</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-78605680.60078605</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-78644079.33908604</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-78643799.33908604</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-77075477.90032943</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-80444418.54262942</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-81166211.78762943</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-84068429.47012943</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-84068429.47012943</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-88475057.23912942</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-88475057.23912942</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-88475057.23912942</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-88625347.12712942</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-86216636.12712942</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-87402601.12712942</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-87544792.61222942</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 AOA ohlcv.xlsx
@@ -2056,7 +2056,7 @@
         <v>-28561847.8715768</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-30007472.13377681</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-32445868.8823768</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-36623094.2109768</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-36622581.9815768</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-38952160.9815768</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-40166228.9815768</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-41010992.28177681</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-41006451.96217681</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-41010103.38397681</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-41009643.70357681</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-48919179.7300768</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-51857261.7300768</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-51852261.7300768</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-51852261.7300768</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-51839301.8853768</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-55302396.6010768</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-53801054.6010768</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-55726785.6010768</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-55563171.69117679</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-55445006.11677679</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-57796589.24837679</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-54780389.24837679</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-55202285.24837679</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-55201925.96877679</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-58915864.96877679</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-63122264.96877679</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-62096684.96877679</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-75521335.40218064</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-73498772.40218064</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-73497587.55208065</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-76446023.05748065</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-76445647.76178065</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-76329214.45238064</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-78644079.33912943</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-78605680.60078605</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-78644079.33908604</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-78643799.33908604</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-77075477.90032943</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-77815974.54262942</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-81166706.02152942</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-81166211.78762943</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-80906957.47012943</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-84068429.47012943</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-85317202.47012943</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-88475057.23912942</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-86216636.12712942</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-87544792.61222942</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
